--- a/PythonProject/iteration1/main/part_8.xlsx
+++ b/PythonProject/iteration1/main/part_8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183888" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="550">
   <si>
     <t>Name</t>
   </si>
@@ -25,6 +25,12 @@
     <t>Student_ID</t>
   </si>
   <si>
+    <t>Poll-1</t>
+  </si>
+  <si>
+    <t>Poll-2 (Only Attandance Poll)</t>
+  </si>
+  <si>
     <t>ABBAS</t>
   </si>
   <si>
@@ -34,30 +40,6 @@
     <t>150119674</t>
   </si>
   <si>
-    <t>Success rate for quiz poll</t>
-  </si>
-  <si>
-    <t>Quiz_Poll_Date</t>
-  </si>
-  <si>
-    <t>Nov 23, 2020</t>
-  </si>
-  <si>
-    <t>Success rate for attendance poll</t>
-  </si>
-  <si>
-    <t>Attendance_Poll_Date</t>
-  </si>
-  <si>
-    <t>Nov 24, 2020</t>
-  </si>
-  <si>
-    <t>81.82%</t>
-  </si>
-  <si>
-    <t>Performance per week</t>
-  </si>
-  <si>
     <t>ABBAS GÖKTUĞ</t>
   </si>
   <si>
@@ -67,9 +49,6 @@
     <t>150115061</t>
   </si>
   <si>
-    <t>72.73%</t>
-  </si>
-  <si>
     <t>ABDUL KERİM</t>
   </si>
   <si>
@@ -79,9 +58,6 @@
     <t>150115856</t>
   </si>
   <si>
-    <t>0.00%</t>
-  </si>
-  <si>
     <t>ABDULHALİK</t>
   </si>
   <si>
@@ -91,9 +67,6 @@
     <t>150119598</t>
   </si>
   <si>
-    <t>27.27%</t>
-  </si>
-  <si>
     <t>ABDULLAH</t>
   </si>
   <si>
@@ -121,9 +94,6 @@
     <t>150115065</t>
   </si>
   <si>
-    <t>68.18%</t>
-  </si>
-  <si>
     <t>AHMAD</t>
   </si>
   <si>
@@ -163,18 +133,12 @@
     <t>150117018</t>
   </si>
   <si>
-    <t>90.91%</t>
-  </si>
-  <si>
     <t>TURGUT</t>
   </si>
   <si>
     <t>150117046</t>
   </si>
   <si>
-    <t>86.36%</t>
-  </si>
-  <si>
     <t>AHMET ÇAĞRI</t>
   </si>
   <si>
@@ -184,9 +148,6 @@
     <t>150118508</t>
   </si>
   <si>
-    <t>77.27%</t>
-  </si>
-  <si>
     <t>AHMET ELBURUZ</t>
   </si>
   <si>
@@ -220,9 +181,6 @@
     <t>150119660</t>
   </si>
   <si>
-    <t>18.18%</t>
-  </si>
-  <si>
     <t>AHMET FAZIL</t>
   </si>
   <si>
@@ -232,9 +190,6 @@
     <t>150119522</t>
   </si>
   <si>
-    <t>63.64%</t>
-  </si>
-  <si>
     <t>AHMET HAKAN</t>
   </si>
   <si>
@@ -271,9 +226,6 @@
     <t>150119842</t>
   </si>
   <si>
-    <t>4.55%</t>
-  </si>
-  <si>
     <t>AHMET ONAT</t>
   </si>
   <si>
@@ -301,9 +253,6 @@
     <t>150119870</t>
   </si>
   <si>
-    <t>95.45%</t>
-  </si>
-  <si>
     <t>ALİ</t>
   </si>
   <si>
@@ -436,9 +385,6 @@
     <t>150119640</t>
   </si>
   <si>
-    <t>22.73%</t>
-  </si>
-  <si>
     <t>AYÇA İDİL</t>
   </si>
   <si>
@@ -457,9 +403,6 @@
     <t>150118981</t>
   </si>
   <si>
-    <t>50.00%</t>
-  </si>
-  <si>
     <t>AYKUT</t>
   </si>
   <si>
@@ -469,9 +412,6 @@
     <t>150115854</t>
   </si>
   <si>
-    <t>36.36%</t>
-  </si>
-  <si>
     <t>AYŞENUR</t>
   </si>
   <si>
@@ -514,9 +454,6 @@
     <t>150117003</t>
   </si>
   <si>
-    <t>31.82%</t>
-  </si>
-  <si>
     <t>BERKE</t>
   </si>
   <si>
@@ -805,9 +742,6 @@
     <t>150117032</t>
   </si>
   <si>
-    <t>13.64%</t>
-  </si>
-  <si>
     <t>BAŞ</t>
   </si>
   <si>
@@ -892,9 +826,6 @@
     <t>150119820</t>
   </si>
   <si>
-    <t>59.09%</t>
-  </si>
-  <si>
     <t>HAMZA</t>
   </si>
   <si>
@@ -1303,9 +1234,6 @@
     <t>150119658</t>
   </si>
   <si>
-    <t>54.55%</t>
-  </si>
-  <si>
     <t>OSMAN</t>
   </si>
   <si>
@@ -1313,9 +1241,6 @@
   </si>
   <si>
     <t>150117038</t>
-  </si>
-  <si>
-    <t>40.91%</t>
   </si>
   <si>
     <t>OZAN</t>
@@ -2070,13 +1995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2087,5674 +2012,3910 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
       <c r="E2">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0.3636363636363636</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E18">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>0.3636363636363636</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>0.2727272727272727</v>
       </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0.09090909090909091</v>
       </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E25">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E26">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E27">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E29">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E30">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E32">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E34">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E36">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E37">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E38">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E39">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E40">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E41">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E42">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E43">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E45">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E46">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E48">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E49">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E50">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E51">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E52">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E53">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E54">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E55">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E56">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E57">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E58">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E59">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F59" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E60">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F60" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E61">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F61" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E63">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F63" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E65">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F65" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E66">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F66" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E67">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F67" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E68">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F68" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E69">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F69" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D70" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E70">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F70" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E71">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F71" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="E72">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F72" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D73" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="E73">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F73" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="E74">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F74" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="E75">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F75" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D76" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E76">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F76" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D77" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="E77">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F77" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="C78" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C79" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="E79">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F79" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E80">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F80" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D81" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E81">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F81" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E82">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F82" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D83" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="E84">
         <v>0.2727272727272727</v>
       </c>
-      <c r="F84" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D85" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E85">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F85" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D86" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="E86">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F86" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D87" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C88" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D88" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E88">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F88" t="s">
-        <v>8</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C89" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E89">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F89" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="E90">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F90" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C91" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D91" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E91">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F91" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C92" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="E92">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F92" t="s">
-        <v>8</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D93" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="E93">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F93" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C94" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D94" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="E94">
         <v>0.1818181818181818</v>
       </c>
-      <c r="F94" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="C95" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="D95" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E95">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F95" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C96" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="E96">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C97" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="E97">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="D98" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="E98">
         <v>0.2727272727272727</v>
       </c>
-      <c r="F98" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C99" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="D99" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E99">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F99" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C100" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D100" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="E100">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F100" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D101" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="E101">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>11</v>
-      </c>
-      <c r="I101" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C102" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D102" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="E102">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F102" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="D103" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E103">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F103" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
-        <v>11</v>
-      </c>
-      <c r="I103" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="C104" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E104">
         <v>0.2727272727272727</v>
       </c>
-      <c r="F104" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104" t="s">
-        <v>11</v>
-      </c>
-      <c r="I104" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D105" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E105">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F105" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>11</v>
-      </c>
-      <c r="I105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="C106" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="D106" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="E106">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F106" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>11</v>
-      </c>
-      <c r="I106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="C107" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D107" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="F107" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D108" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="E108">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F108" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="C109" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D109" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="E109">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="C110" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="D110" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="E110">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F110" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C111" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D111" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="E111">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F111" t="s">
-        <v>8</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="C112" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D112" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="E112">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F112" t="s">
-        <v>8</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="E113">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C114" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D114" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
-      <c r="F114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C115" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D115" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E115">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F115" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="C116" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D116" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E116">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F116" t="s">
-        <v>8</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="C117" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D117" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="E117">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F117" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C118" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="D118" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
-      <c r="F118" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118" t="s">
-        <v>11</v>
-      </c>
-      <c r="I118" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C119" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D119" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E119">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F119" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C120" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="D120" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E120">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F120" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C121" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D121" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="E121">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F121" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D122" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="E122">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F122" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="C123" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="D123" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="E123">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F123" t="s">
-        <v>8</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="C124" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="D124" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="F124" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124" t="s">
-        <v>11</v>
-      </c>
-      <c r="I124" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="C125" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="D125" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="E125">
         <v>0.3636363636363636</v>
       </c>
-      <c r="F125" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125" t="s">
-        <v>11</v>
-      </c>
-      <c r="I125" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="C126" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="D126" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="E126">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F126" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126" t="s">
-        <v>11</v>
-      </c>
-      <c r="I126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="C127" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="D127" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
-      <c r="F127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127" t="s">
-        <v>11</v>
-      </c>
-      <c r="I127" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="C128" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="D128" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="E128">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F128" t="s">
-        <v>8</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C129" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="D129" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="E129">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F129" t="s">
-        <v>8</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="C130" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D130" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="E130">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F130" t="s">
-        <v>8</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130" t="s">
-        <v>11</v>
-      </c>
-      <c r="I130" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="C131" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D131" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
-      <c r="F131" t="s">
-        <v>8</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131" t="s">
-        <v>11</v>
-      </c>
-      <c r="I131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="C132" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="D132" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E132">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F132" t="s">
-        <v>8</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132" t="s">
-        <v>11</v>
-      </c>
-      <c r="I132" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C133" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="D133" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="E133">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F133" t="s">
-        <v>8</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="C134" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="D134" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
-      <c r="F134" t="s">
-        <v>8</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134" t="s">
-        <v>11</v>
-      </c>
-      <c r="I134" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C135" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D135" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="E135">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F135" t="s">
-        <v>8</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="C136" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="D136" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="E136">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F136" t="s">
-        <v>8</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="C137" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="D137" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="E137">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F137" t="s">
-        <v>8</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="C138" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="D138" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="E138">
         <v>0.3636363636363636</v>
       </c>
-      <c r="F138" t="s">
-        <v>8</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138" t="s">
-        <v>11</v>
-      </c>
-      <c r="I138" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="D139" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="E139">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F139" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139" t="s">
-        <v>11</v>
-      </c>
-      <c r="I139" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="C140" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="D140" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="E140">
         <v>0.1818181818181818</v>
       </c>
-      <c r="F140" t="s">
-        <v>8</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="C141" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="D141" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="E141">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141" t="s">
-        <v>11</v>
-      </c>
-      <c r="I141" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="C142" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="D142" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="E142">
         <v>0.09090909090909091</v>
       </c>
-      <c r="F142" t="s">
-        <v>8</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142" t="s">
-        <v>11</v>
-      </c>
-      <c r="I142" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="C143" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="D143" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="E143">
         <v>0.09090909090909091</v>
       </c>
-      <c r="F143" t="s">
-        <v>8</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143" t="s">
-        <v>11</v>
-      </c>
-      <c r="I143" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C144" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="D144" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="E144">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F144" t="s">
-        <v>8</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="C145" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="D145" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="E145">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F145" t="s">
-        <v>8</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145" t="s">
-        <v>11</v>
-      </c>
-      <c r="I145" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C146" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D146" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="E146">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F146" t="s">
-        <v>8</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-      <c r="H146" t="s">
-        <v>11</v>
-      </c>
-      <c r="I146" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C147" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D147" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
-      <c r="F147" t="s">
-        <v>8</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147" t="s">
-        <v>11</v>
-      </c>
-      <c r="I147" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C148" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D148" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="E148">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F148" t="s">
-        <v>8</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="H148" t="s">
-        <v>11</v>
-      </c>
-      <c r="I148" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="C149" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D149" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="E149">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F149" t="s">
-        <v>8</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149" t="s">
-        <v>11</v>
-      </c>
-      <c r="I149" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="C150" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="D150" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="E150">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F150" t="s">
-        <v>8</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150" t="s">
-        <v>11</v>
-      </c>
-      <c r="I150" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="C151" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D151" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E151">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F151" t="s">
-        <v>8</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C152" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D152" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="E152">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F152" t="s">
-        <v>8</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152" t="s">
-        <v>11</v>
-      </c>
-      <c r="I152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="C153" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="D153" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="E153">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F153" t="s">
-        <v>8</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153" t="s">
-        <v>11</v>
-      </c>
-      <c r="I153" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="C154" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D154" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="E154">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F154" t="s">
-        <v>8</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154" t="s">
-        <v>11</v>
-      </c>
-      <c r="I154" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="C155" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="D155" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="E155">
         <v>0.3636363636363636</v>
       </c>
-      <c r="F155" t="s">
-        <v>8</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155" t="s">
-        <v>11</v>
-      </c>
-      <c r="I155" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="C156" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="D156" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
-      <c r="F156" t="s">
-        <v>8</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156" t="s">
-        <v>11</v>
-      </c>
-      <c r="I156" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C157" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="D157" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="E157">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F157" t="s">
-        <v>8</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="H157" t="s">
-        <v>11</v>
-      </c>
-      <c r="I157" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C158" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D158" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="E158">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F158" t="s">
-        <v>8</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158" t="s">
-        <v>11</v>
-      </c>
-      <c r="I158" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="C159" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="D159" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E159">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F159" t="s">
-        <v>8</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159" t="s">
-        <v>11</v>
-      </c>
-      <c r="I159" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="C160" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D160" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
-      <c r="F160" t="s">
-        <v>8</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160" t="s">
-        <v>11</v>
-      </c>
-      <c r="I160" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="C161" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="D161" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E161">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F161" t="s">
-        <v>8</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161" t="s">
-        <v>11</v>
-      </c>
-      <c r="I161" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="C162" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="D162" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="E162">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F162" t="s">
-        <v>8</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162" t="s">
-        <v>11</v>
-      </c>
-      <c r="I162" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="C163" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="D163" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="E163">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F163" t="s">
-        <v>8</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="H163" t="s">
-        <v>11</v>
-      </c>
-      <c r="I163" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="C164" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="D164" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="E164">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F164" t="s">
-        <v>8</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164" t="s">
-        <v>11</v>
-      </c>
-      <c r="I164" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="C165" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="D165" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="E165">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F165" t="s">
-        <v>8</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165" t="s">
-        <v>11</v>
-      </c>
-      <c r="I165" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C166" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="D166" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="E166">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F166" t="s">
-        <v>8</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166" t="s">
-        <v>11</v>
-      </c>
-      <c r="I166" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="C167" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="D167" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="E167">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F167" t="s">
-        <v>8</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167" t="s">
-        <v>11</v>
-      </c>
-      <c r="I167" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="C168" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="D168" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
-      <c r="F168" t="s">
-        <v>8</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168" t="s">
-        <v>11</v>
-      </c>
-      <c r="I168" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="C169" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="D169" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="E169">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F169" t="s">
-        <v>8</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169" t="s">
-        <v>11</v>
-      </c>
-      <c r="I169" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="C170" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="D170" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
-      <c r="F170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170" t="s">
-        <v>11</v>
-      </c>
-      <c r="I170" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="C171" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D171" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="E171">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F171" t="s">
-        <v>8</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171" t="s">
-        <v>11</v>
-      </c>
-      <c r="I171" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="C172" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="D172" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="E172">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F172" t="s">
-        <v>8</v>
-      </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172" t="s">
-        <v>11</v>
-      </c>
-      <c r="I172" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="C173" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="D173" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="E173">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F173" t="s">
-        <v>8</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173" t="s">
-        <v>11</v>
-      </c>
-      <c r="I173" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C174" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D174" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="E174">
         <v>0.3636363636363636</v>
       </c>
-      <c r="F174" t="s">
-        <v>8</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174" t="s">
-        <v>11</v>
-      </c>
-      <c r="I174" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="C175" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D175" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="E175">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F175" t="s">
-        <v>8</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175" t="s">
-        <v>11</v>
-      </c>
-      <c r="I175" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C176" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="D176" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="E176">
         <v>0.2727272727272727</v>
       </c>
-      <c r="F176" t="s">
-        <v>8</v>
-      </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176" t="s">
-        <v>11</v>
-      </c>
-      <c r="I176" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="C177" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D177" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E177">
         <v>0.2727272727272727</v>
       </c>
-      <c r="F177" t="s">
-        <v>8</v>
-      </c>
-      <c r="G177">
-        <v>1</v>
-      </c>
-      <c r="H177" t="s">
-        <v>11</v>
-      </c>
-      <c r="I177" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="C178" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="D178" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="E178">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F178" t="s">
-        <v>8</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-      <c r="H178" t="s">
-        <v>11</v>
-      </c>
-      <c r="I178" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="C179" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="D179" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="E179">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F179" t="s">
-        <v>8</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="H179" t="s">
-        <v>11</v>
-      </c>
-      <c r="I179" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="C180" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="D180" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="E180">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F180" t="s">
-        <v>8</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="H180" t="s">
-        <v>11</v>
-      </c>
-      <c r="I180" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="C181" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="D181" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="E181">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F181" t="s">
-        <v>8</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-      <c r="H181" t="s">
-        <v>11</v>
-      </c>
-      <c r="I181" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="C182" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="D182" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="E182">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F182" t="s">
-        <v>8</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182" t="s">
-        <v>11</v>
-      </c>
-      <c r="I182" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C183" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D183" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E183">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F183" t="s">
-        <v>8</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-      <c r="H183" t="s">
-        <v>11</v>
-      </c>
-      <c r="I183" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="C184" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="D184" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="E184">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F184" t="s">
-        <v>8</v>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-      <c r="H184" t="s">
-        <v>11</v>
-      </c>
-      <c r="I184" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="C185" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="D185" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="E185">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F185" t="s">
-        <v>8</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-      <c r="H185" t="s">
-        <v>11</v>
-      </c>
-      <c r="I185" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="C186" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D186" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="E186">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F186" t="s">
-        <v>8</v>
-      </c>
-      <c r="G186">
-        <v>1</v>
-      </c>
-      <c r="H186" t="s">
-        <v>11</v>
-      </c>
-      <c r="I186" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="C187" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="D187" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E187">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F187" t="s">
-        <v>8</v>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-      <c r="H187" t="s">
-        <v>11</v>
-      </c>
-      <c r="I187" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="C188" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="D188" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="E188">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F188" t="s">
-        <v>8</v>
-      </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-      <c r="H188" t="s">
-        <v>11</v>
-      </c>
-      <c r="I188" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="C189" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="D189" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="E189">
         <v>0.09090909090909091</v>
       </c>
-      <c r="F189" t="s">
-        <v>8</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-      <c r="H189" t="s">
-        <v>11</v>
-      </c>
-      <c r="I189" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="C190" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="D190" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="E190">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F190" t="s">
-        <v>8</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190" t="s">
-        <v>11</v>
-      </c>
-      <c r="I190" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="C191" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="D191" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="E191">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F191" t="s">
-        <v>8</v>
-      </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-      <c r="H191" t="s">
-        <v>11</v>
-      </c>
-      <c r="I191" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="C192" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D192" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="E192">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F192" t="s">
-        <v>8</v>
-      </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-      <c r="H192" t="s">
-        <v>11</v>
-      </c>
-      <c r="I192" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="C193" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="D193" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="E193">
         <v>0.9090909090909091</v>
       </c>
-      <c r="F193" t="s">
-        <v>8</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-      <c r="H193" t="s">
-        <v>11</v>
-      </c>
-      <c r="I193" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="D194" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="E194">
         <v>0.2727272727272727</v>
       </c>
-      <c r="F194" t="s">
-        <v>8</v>
-      </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-      <c r="H194" t="s">
-        <v>11</v>
-      </c>
-      <c r="I194" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C195" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="D195" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="E195">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F195" t="s">
-        <v>8</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-      <c r="H195" t="s">
-        <v>11</v>
-      </c>
-      <c r="I195" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="C196" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="D196" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
-      <c r="F196" t="s">
-        <v>8</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196" t="s">
-        <v>11</v>
-      </c>
-      <c r="I196" t="s">
-        <v>21</v>
+      <c r="F196">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
